--- a/7_Part 4 Graphics and tables/xlsx-files/Stadtteile_Ranking.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Stadtteile_Ranking.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,9 +441,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -472,91 +472,91 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Innenstadt-West</t>
+          <t>Innenstadt-Ost</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>2258</v>
+        <v>931</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Innenstadt-West</t>
+          <t>Innenstadt-Ost</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>2258</v>
+        <v>931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Hagsfeld</t>
+          <t>Innenstadt-West</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>534</v>
+        <v>903</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Hagsfeld</t>
+          <t>Innenstadt-West</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>534</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Oststadt</t>
+          <t>Weststadt</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>473</v>
+        <v>856</v>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Oststadt</t>
+          <t>Weststadt</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>473</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Stupferich</t>
+          <t>Oststadt</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>340</v>
+        <v>837</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Stupferich</t>
+          <t>Oststadt</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>340</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Südweststadt</t>
+          <t>Neureut</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>261</v>
+        <v>799</v>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Südweststadt</t>
+          <t>Neureut</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>261</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
@@ -574,389 +574,119 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Grötzingen</t>
+          <t>Grünwinkel</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Grötzingen</t>
+          <t>Grünwinkel</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Weststadt</t>
+          <t>Mühlburg</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Weststadt</t>
+          <t>Mühlburg</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Südstadt</t>
+          <t>Rüppurr</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Südstadt</t>
+          <t>Rüppurr</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Neureut</t>
+          <t>Oberreut</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Neureut</t>
+          <t>Oberreut</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>159</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Mühlburg</t>
+          <t>Grötzingen</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Mühlburg</t>
+          <t>Grötzingen</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>136</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Rintheim</t>
+          <t>Knielingen</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Rintheim</t>
+          <t>Knielingen</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Nordstadt</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Nordstadt</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Weiherfeld-Dammerstock</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>99</v>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Weiherfeld-Dammerstock</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Palmbach</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>95</v>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Palmbach</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Grünwettersbach</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Grünwettersbach</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Rüppurr</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Rüppurr</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Nordweststadt</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>59</v>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Nordweststadt</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Waldstadt</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>58</v>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Waldstadt</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Daxlanden</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Daxlanden</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Knielingen</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>Knielingen</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Oberreut</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>54</v>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Oberreut</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Innenstadt-Ost</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Innenstadt-Ost</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>Hohenwettersbach</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Hohenwettersbach</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Wolfartsweier</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Wolfartsweier</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>Beiertheim-Bulach</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Beiertheim-Bulach</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Grünwinkel</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>Grünwinkel</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D13"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>